--- a/Dashboard/Ferretería/Alicate-Predicción.xlsx
+++ b/Dashboard/Ferretería/Alicate-Predicción.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Python\Modelo\DataSet\Ferretería\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\PycharmProjects\InventaryManager\Dashboard\Ferretería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548EB5D0-4A60-431B-B911-B1E4A6B32E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAC177C-013D-417E-9D0E-DEDCC5D75367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{E868DD13-13D0-4205-B5B0-02BA8539ECDB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E868DD13-13D0-4205-B5B0-02BA8539ECDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>MES</t>
   </si>
   <si>
     <t>PRODUCTOS ALMACENADOS</t>
-  </si>
-  <si>
-    <t>PRODUCTOS VENDIDOS</t>
   </si>
   <si>
     <t>DEMANDA DEL PRODUCTO</t>
@@ -152,9 +147,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,7 +187,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -298,7 +293,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -440,7 +435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -448,24 +443,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB0C0F7-7F7E-4081-82E2-DA8249F92A5B}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D26"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.765625" customWidth="1"/>
-    <col min="3" max="3" width="17.69140625" customWidth="1"/>
-    <col min="4" max="4" width="18.3046875" customWidth="1"/>
-    <col min="5" max="5" width="20.84375" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="16.4609375" customWidth="1"/>
-    <col min="8" max="8" width="13.921875" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,25 +467,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -513,11 +504,8 @@
       <c r="G2" s="3">
         <v>90</v>
       </c>
-      <c r="H2" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -539,11 +527,8 @@
       <c r="G3" s="3">
         <v>100</v>
       </c>
-      <c r="H3" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -565,11 +550,8 @@
       <c r="G4" s="3">
         <v>110</v>
       </c>
-      <c r="H4" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -591,11 +573,8 @@
       <c r="G5" s="3">
         <v>105</v>
       </c>
-      <c r="H5" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -617,11 +596,8 @@
       <c r="G6" s="3">
         <v>120</v>
       </c>
-      <c r="H6" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -643,11 +619,8 @@
       <c r="G7" s="3">
         <v>130</v>
       </c>
-      <c r="H7" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -669,11 +642,8 @@
       <c r="G8" s="3">
         <v>140</v>
       </c>
-      <c r="H8" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -695,11 +665,8 @@
       <c r="G9" s="3">
         <v>125</v>
       </c>
-      <c r="H9" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -721,11 +688,8 @@
       <c r="G10" s="3">
         <v>135</v>
       </c>
-      <c r="H10" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -747,11 +711,8 @@
       <c r="G11" s="3">
         <v>120</v>
       </c>
-      <c r="H11" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -773,11 +734,8 @@
       <c r="G12" s="3">
         <v>140</v>
       </c>
-      <c r="H12" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -799,11 +757,8 @@
       <c r="G13" s="3">
         <v>150</v>
       </c>
-      <c r="H13" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -825,11 +780,8 @@
       <c r="G14" s="3">
         <v>130</v>
       </c>
-      <c r="H14" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -851,11 +803,8 @@
       <c r="G15" s="3">
         <v>110</v>
       </c>
-      <c r="H15" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -877,11 +826,8 @@
       <c r="G16" s="3">
         <v>100</v>
       </c>
-      <c r="H16" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -903,11 +849,8 @@
       <c r="G17" s="3">
         <v>95</v>
       </c>
-      <c r="H17" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -929,11 +872,8 @@
       <c r="G18" s="3">
         <v>105</v>
       </c>
-      <c r="H18" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -955,11 +895,8 @@
       <c r="G19" s="3">
         <v>100</v>
       </c>
-      <c r="H19" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -981,11 +918,8 @@
       <c r="G20" s="3">
         <v>90</v>
       </c>
-      <c r="H20" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1007,11 +941,8 @@
       <c r="G21" s="3">
         <v>85</v>
       </c>
-      <c r="H21" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1033,11 +964,8 @@
       <c r="G22" s="3">
         <v>110</v>
       </c>
-      <c r="H22" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1059,12 +987,9 @@
       <c r="G23" s="3">
         <v>120</v>
       </c>
-      <c r="H23" s="3">
-        <v>70</v>
-      </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1086,11 +1011,8 @@
       <c r="G24" s="3">
         <v>115</v>
       </c>
-      <c r="H24" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1111,9 +1033,6 @@
       </c>
       <c r="G25" s="3">
         <v>125</v>
-      </c>
-      <c r="H25" s="3">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
